--- a/TestData/T1426_OpportunityToEngagementConversionMappingForCFJobTypes2.xlsx
+++ b/TestData/T1426_OpportunityToEngagementConversionMappingForCFJobTypes2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4666656-3B6E-41CD-94B4-C9C9CA3E7AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -22,20 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="82">
   <si>
     <t>Client</t>
   </si>
@@ -151,12 +144,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>9999.0</t>
-  </si>
-  <si>
     <t>Board of Directors</t>
   </si>
   <si>
@@ -259,21 +246,6 @@
     <t>Emre Abale</t>
   </si>
   <si>
-    <t>9999.1</t>
-  </si>
-  <si>
-    <t>9999.2</t>
-  </si>
-  <si>
-    <t>9999.3</t>
-  </si>
-  <si>
-    <t>9999.4</t>
-  </si>
-  <si>
-    <t>9999.5</t>
-  </si>
-  <si>
     <t>Rob Oudman</t>
   </si>
   <si>
@@ -296,13 +268,19 @@
   </si>
   <si>
     <t>Activism Advisory</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +415,12 @@
       <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="18">
@@ -683,64 +667,60 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1 2" xfId="2"/>
-    <cellStyle name="20% - Accent2 2" xfId="7"/>
-    <cellStyle name="20% - Accent3 2" xfId="3"/>
-    <cellStyle name="20% - Accent4 2" xfId="4"/>
-    <cellStyle name="20% - Accent5 2" xfId="5"/>
-    <cellStyle name="20% - Accent6 2" xfId="6"/>
-    <cellStyle name="40% - Accent1 2" xfId="9"/>
-    <cellStyle name="40% - Accent2 2" xfId="7"/>
-    <cellStyle name="40% - Accent3 2" xfId="8"/>
-    <cellStyle name="40% - Accent4 2" xfId="10"/>
-    <cellStyle name="40% - Accent5 2" xfId="9"/>
-    <cellStyle name="40% - Accent6 2" xfId="10"/>
-    <cellStyle name="60% - Accent1 2" xfId="11"/>
-    <cellStyle name="60% - Accent2 2" xfId="12"/>
-    <cellStyle name="60% - Accent3 2" xfId="13"/>
-    <cellStyle name="60% - Accent4 2" xfId="14"/>
-    <cellStyle name="60% - Accent5 2" xfId="15"/>
-    <cellStyle name="60% - Accent6 2" xfId="20"/>
-    <cellStyle name="Accent1 2" xfId="15"/>
-    <cellStyle name="Accent2 2" xfId="16"/>
-    <cellStyle name="Accent3 2" xfId="17"/>
-    <cellStyle name="Accent4 2" xfId="18"/>
-    <cellStyle name="Accent5 2" xfId="19"/>
-    <cellStyle name="Accent6 2" xfId="20"/>
-    <cellStyle name="Bad 2" xfId="21"/>
-    <cellStyle name="Calculation 2" xfId="22"/>
-    <cellStyle name="Check Cell 2" xfId="23"/>
-    <cellStyle name="Explanatory Text 2" xfId="24"/>
-    <cellStyle name="Good 2" xfId="25"/>
-    <cellStyle name="Heading 1 2" xfId="26"/>
-    <cellStyle name="Heading 2 2" xfId="27"/>
-    <cellStyle name="Heading 3 2" xfId="28"/>
-    <cellStyle name="Heading 4 2" xfId="29"/>
-    <cellStyle name="Input 2" xfId="30"/>
-    <cellStyle name="Linked Cell 2" xfId="31"/>
-    <cellStyle name="Neutral 2" xfId="32"/>
+    <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Calculation 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Check Cell 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Good 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Heading 1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Heading 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Heading 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Heading 4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Input 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Neutral 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Note 2" xfId="33"/>
-    <cellStyle name="Output 2" xfId="34"/>
-    <cellStyle name="Title 2" xfId="35"/>
-    <cellStyle name="Total 2" xfId="36"/>
-    <cellStyle name="Warning Text 2" xfId="37"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Note 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Output 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Title 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Total 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Warning Text 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1017,971 +997,969 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.85546875" style="3"/>
-    <col min="26" max="26" width="11.28515625" style="3" customWidth="1"/>
-    <col min="27" max="28" width="8.85546875" style="3"/>
-    <col min="29" max="29" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>48</v>
+      <c r="Y1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>84</v>
+      <c r="AD1" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="N3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S3" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="T3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="O4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X4" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="Y4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="U5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="W6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S7" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="T7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U7" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V7" t="s">
+        <v>69</v>
+      </c>
+      <c r="W7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
         <v>71</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="O8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" t="s">
+        <v>69</v>
+      </c>
+      <c r="W8" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X8" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="3" t="s">
+      <c r="Y8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" t="s">
+        <v>69</v>
+      </c>
+      <c r="W9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
         <v>79</v>
       </c>
-      <c r="AD3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="3" t="s">
+      <c r="W10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC10" t="s">
         <v>71</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" s="5" t="s">
+      <c r="AD10" t="s">
         <v>78</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>85</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2004,10 +1982,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2017,7 +1995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2042,48 +2020,48 @@
         <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2093,10 +2071,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2110,142 +2088,142 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="8" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>86</v>
+      <c r="D10" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/T1426_OpportunityToEngagementConversionMappingForCFJobTypes2.xlsx
+++ b/TestData/T1426_OpportunityToEngagementConversionMappingForCFJobTypes2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4666656-3B6E-41CD-94B4-C9C9CA3E7AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19AC0DC-CA7C-4D8B-8B8D-98ECD018F389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="85">
   <si>
     <t>Client</t>
   </si>
@@ -274,6 +274,15 @@
   </si>
   <si>
     <t>9999</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Post Merger Integration</t>
+  </si>
+  <si>
+    <t>Valuation Advisory</t>
   </si>
 </sst>
 </file>
@@ -667,7 +676,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -676,6 +685,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -998,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AF21" sqref="AF21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,6 +1963,282 @@
         <v>78</v>
       </c>
     </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" t="s">
+        <v>69</v>
+      </c>
+      <c r="W11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12" t="s">
+        <v>69</v>
+      </c>
+      <c r="W12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U13" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13" t="s">
+        <v>69</v>
+      </c>
+      <c r="W13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2072,10 +2360,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,6 +2514,48 @@
         <v>79</v>
       </c>
     </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/TestData/T1426_OpportunityToEngagementConversionMappingForCFJobTypes2.xlsx
+++ b/TestData/T1426_OpportunityToEngagementConversionMappingForCFJobTypes2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19AC0DC-CA7C-4D8B-8B8D-98ECD018F389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4074B787-5B9D-4D60-9F02-389D96476A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28950" windowHeight="14580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -1010,15 +1010,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD13"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
@@ -1043,7 +1044,7 @@
     <col min="30" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1226,8 +1227,11 @@
       <c r="AD2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1235,7 +1239,7 @@
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1318,8 +1322,11 @@
       <c r="AD3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1327,7 +1334,7 @@
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1410,8 +1417,11 @@
       <c r="AD4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1419,7 +1429,7 @@
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1502,8 +1512,11 @@
       <c r="AD5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -1511,7 +1524,7 @@
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1594,8 +1607,11 @@
       <c r="AD6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1603,7 +1619,7 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1686,8 +1702,11 @@
       <c r="AD7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1695,7 +1714,7 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1778,16 +1797,19 @@
       <c r="AD8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE8" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" t="s">
-        <v>66</v>
+      <c r="C9" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1865,21 +1887,24 @@
         <v>80</v>
       </c>
       <c r="AC9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" t="s">
-        <v>79</v>
+      <c r="C10" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1962,8 +1987,11 @@
       <c r="AD10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -1971,7 +1999,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -2054,16 +2082,19 @@
       <c r="AD11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>83</v>
+      <c r="C12" t="s">
+        <v>73</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -2146,16 +2177,19 @@
       <c r="AD12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>84</v>
+      <c r="C13" t="s">
+        <v>74</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -2233,10 +2267,13 @@
         <v>80</v>
       </c>
       <c r="AC13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD13" t="s">
-        <v>78</v>
+        <v>9</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2360,10 +2397,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,7 +2411,7 @@
     <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -2388,35 +2425,41 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>75</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -2427,10 +2470,13 @@
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -2441,10 +2487,13 @@
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -2455,10 +2504,13 @@
         <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
@@ -2469,52 +2521,64 @@
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="D9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>56</v>
       </c>
@@ -2525,35 +2589,44 @@
         <v>67</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>84</v>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/T1426_OpportunityToEngagementConversionMappingForCFJobTypes2.xlsx
+++ b/TestData/T1426_OpportunityToEngagementConversionMappingForCFJobTypes2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4074B787-5B9D-4D60-9F02-389D96476A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6A60F8-5658-40EE-A866-962583DCD60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28950" windowHeight="14580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="14610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1144,7 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1222,13 +1222,13 @@
         <v>80</v>
       </c>
       <c r="AC2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE2">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1317,13 +1317,13 @@
         <v>80</v>
       </c>
       <c r="AC3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1412,13 +1412,13 @@
         <v>80</v>
       </c>
       <c r="AC4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="AE4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1507,13 +1507,13 @@
         <v>80</v>
       </c>
       <c r="AC5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="AE5" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1602,13 +1602,13 @@
         <v>80</v>
       </c>
       <c r="AC6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE6">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1619,7 +1619,7 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1697,13 +1697,13 @@
         <v>80</v>
       </c>
       <c r="AC7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>8</v>
+        <v>78</v>
+      </c>
+      <c r="AE7">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -1714,7 +1714,7 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1792,13 +1792,13 @@
         <v>80</v>
       </c>
       <c r="AC8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD8" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="AE8" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1808,8 +1808,8 @@
       <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>82</v>
+      <c r="C9" t="s">
+        <v>79</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1893,7 +1893,7 @@
         <v>78</v>
       </c>
       <c r="AE9" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -1904,7 +1904,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1987,8 +1987,8 @@
       <c r="AD10" t="s">
         <v>78</v>
       </c>
-      <c r="AE10">
-        <v>11</v>
+      <c r="AE10" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -1999,7 +1999,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -2082,8 +2082,8 @@
       <c r="AD11" t="s">
         <v>78</v>
       </c>
-      <c r="AE11" s="1">
-        <v>12</v>
+      <c r="AE11">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -2093,8 +2093,8 @@
       <c r="B12" t="s">
         <v>68</v>
       </c>
-      <c r="C12" t="s">
-        <v>73</v>
+      <c r="C12" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -2178,7 +2178,7 @@
         <v>78</v>
       </c>
       <c r="AE12" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2189,7 +2189,7 @@
         <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -2267,13 +2267,13 @@
         <v>80</v>
       </c>
       <c r="AC13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD13" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="AE13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,21 +2425,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>56</v>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
+        <v>74</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2453,10 +2453,10 @@
         <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
+        <v>55</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2470,10 +2470,10 @@
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2487,10 +2487,10 @@
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2504,10 +2504,10 @@
         <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2521,10 +2521,10 @@
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="1">
-        <v>8</v>
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2532,33 +2532,33 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
       </c>
       <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>82</v>
+      <c r="D9" t="s">
+        <v>79</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2572,10 +2572,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10">
-        <v>11</v>
+        <v>82</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2589,44 +2589,44 @@
         <v>67</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/T1426_OpportunityToEngagementConversionMappingForCFJobTypes2.xlsx
+++ b/TestData/T1426_OpportunityToEngagementConversionMappingForCFJobTypes2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6A60F8-5658-40EE-A866-962583DCD60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D63180-E1E8-40FE-BCB3-695CA967DE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="14610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,7 +2399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
